--- a/Data/term_structure_data.xlsx
+++ b/Data/term_structure_data.xlsx
@@ -3359,7 +3359,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B3">
         <v>1.618709</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B6">
         <v>1.532338</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B8">
         <v>1.765389</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B9">
         <v>1.741532</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B12">
         <v>1.731515</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B17">
         <v>1.667636</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B20">
         <v>1.743846</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B21">
         <v>1.732931</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B26">
         <v>1.718865</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B29">
         <v>1.712482</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B35">
         <v>1.780313</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B38">
         <v>1.689946</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B43">
         <v>1.643836</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B46">
         <v>1.721278</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B49">
         <v>1.721768</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B52">
         <v>1.743423</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B58">
         <v>1.803259</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B61">
         <v>1.783981</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B63">
         <v>1.779082</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B66">
         <v>1.749922</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B72">
         <v>1.749617</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B75">
         <v>1.713321</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B78">
         <v>1.701336</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B80">
         <v>1.788546</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B81">
         <v>1.772062</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B84">
         <v>1.716521</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B89">
         <v>1.821578</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B92">
         <v>1.846391</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B95">
         <v>1.843084</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B98">
         <v>1.838599</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B103">
         <v>1.764002</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B107">
         <v>1.80946</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B112">
         <v>1.847013</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B115">
         <v>1.782289</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B118">
         <v>1.777596</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B121">
         <v>1.818495</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B124">
         <v>1.786097</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B130">
         <v>1.747817</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B133">
         <v>1.852028</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B135">
         <v>1.886249</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>36798</v>
+        <v>36799</v>
       </c>
       <c r="B3">
         <v>6.220891</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>36889</v>
+        <v>36891</v>
       </c>
       <c r="B6">
         <v>5.896363</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B9">
         <v>4.281791</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B12">
         <v>3.64629</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B15">
         <v>2.397342</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B21">
         <v>1.792781</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B24">
         <v>1.68526</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B26">
         <v>1.679754</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B29">
         <v>1.225346</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B35">
         <v>1.108078</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B38">
         <v>0.963126</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B41">
         <v>0.947812</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B43">
         <v>0.9171899999999999</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B44">
         <v>0.932469</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B49">
         <v>1.439621</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B52">
         <v>1.935985</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B58">
         <v>2.899571</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B61">
         <v>3.426512</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B66">
         <v>4.085265</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B70">
         <v>4.808894</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B75">
         <v>4.888124</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B78">
         <v>5.037631</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B81">
         <v>5.033466</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B84">
         <v>4.807854</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B87">
         <v>3.886488</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B95">
         <v>1.894511</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B98">
         <v>1.710841</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B101">
         <v>0.116638</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B103">
         <v>0.238389</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B104">
         <v>0.263768</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B107">
         <v>0.167363</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B112">
         <v>0.055765</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B115">
         <v>0.08112999999999999</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B116">
         <v>0.131845</v>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B121">
         <v>0.15214</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B124">
         <v>0.131845</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B130">
         <v>0.045637</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B133">
         <v>0.091516</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B138">
         <v>0.025418</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B141">
         <v>0.076264</v>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B144">
         <v>0.091283</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B147">
         <v>0.076062</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B153">
         <v>0.07098</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B156">
         <v>0.045628</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B158">
         <v>0.030415</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B161">
         <v>0.065926</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B167">
         <v>0.035477</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B170">
         <v>0.012176</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B173">
         <v>0.010132</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B175">
         <v>0.010127</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B176">
         <v>0.015222</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B179">
         <v>0.00508</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B184">
         <v>0.076264</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B187">
         <v>0.325612</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B190">
         <v>0.203434</v>
@@ -9313,7 +9313,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B193">
         <v>0.273956</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B198">
         <v>0.500462</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B202">
         <v>0.810772</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B207">
         <v>1.054065</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B210">
         <v>1.387887</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B213">
         <v>1.71036</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B216">
         <v>1.920026</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B219">
         <v>2.210613</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B225">
         <v>2.399559</v>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B228">
         <v>2.119017</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B230">
         <v>1.980806</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>32871</v>
+        <v>32873</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>32962</v>
+        <v>32963</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>33053</v>
+        <v>33054</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10190,7 +10190,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>33144</v>
+        <v>33146</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10292,7 +10292,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>33326</v>
+        <v>33328</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>33417</v>
+        <v>33419</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>33480</v>
+        <v>33481</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>33571</v>
+        <v>33572</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>33662</v>
+        <v>33663</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>33753</v>
+        <v>33755</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>33907</v>
+        <v>33908</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>33998</v>
+        <v>34000</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>34026</v>
+        <v>34028</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10768,7 +10768,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>34180</v>
+        <v>34181</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10819,7 +10819,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>34271</v>
+        <v>34273</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>34453</v>
+        <v>34454</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10972,7 +10972,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>34544</v>
+        <v>34546</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>34698</v>
+        <v>34699</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>34817</v>
+        <v>34819</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>34971</v>
+        <v>34972</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>35062</v>
+        <v>35064</v>
       </c>
       <c r="B76">
         <v>0.253467</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>35153</v>
+        <v>35155</v>
       </c>
       <c r="B79">
         <v>0.256121</v>
@@ -11363,7 +11363,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>35244</v>
+        <v>35246</v>
       </c>
       <c r="B82">
         <v>0.254111</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>35307</v>
+        <v>35308</v>
       </c>
       <c r="B84">
         <v>0.240731</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>35398</v>
+        <v>35399</v>
       </c>
       <c r="B87">
         <v>0.238155</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>35580</v>
+        <v>35581</v>
       </c>
       <c r="B93">
         <v>0.238255</v>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>35671</v>
+        <v>35673</v>
       </c>
       <c r="B96">
         <v>0.254122</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>35762</v>
+        <v>35764</v>
       </c>
       <c r="B99">
         <v>0.254111</v>
@@ -11686,7 +11686,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>35825</v>
+        <v>35826</v>
       </c>
       <c r="B101">
         <v>0.23812</v>
@@ -11703,7 +11703,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>35853</v>
+        <v>35854</v>
       </c>
       <c r="B102">
         <v>0.238043</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>35944</v>
+        <v>35946</v>
       </c>
       <c r="B105">
         <v>0.254192</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>36098</v>
+        <v>36099</v>
       </c>
       <c r="B110">
         <v>0.238609</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>36189</v>
+        <v>36191</v>
       </c>
       <c r="B113">
         <v>0.254623</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>36217</v>
+        <v>36219</v>
       </c>
       <c r="B114">
         <v>0.254475</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>36371</v>
+        <v>36372</v>
       </c>
       <c r="B119">
         <v>0.237722</v>
@@ -12043,7 +12043,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>36462</v>
+        <v>36464</v>
       </c>
       <c r="B122">
         <v>0.254202</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>36644</v>
+        <v>36646</v>
       </c>
       <c r="B128">
         <v>0.252988</v>
@@ -12230,7 +12230,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>36798</v>
+        <v>36799</v>
       </c>
       <c r="B133">
         <v>0.237533</v>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>36889</v>
+        <v>36891</v>
       </c>
       <c r="B136">
         <v>0.235053</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B139">
         <v>0.238632</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B142">
         <v>0.238995</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B145">
         <v>0.255954</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B151">
         <v>0.259065</v>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B154">
         <v>0.256421</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B156">
         <v>0.242841</v>
@@ -12672,7 +12672,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B159">
         <v>0.240386</v>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B165">
         <v>0.240454</v>
@@ -12825,7 +12825,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B168">
         <v>0.256197</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B171">
         <v>0.256207</v>
@@ -12910,7 +12910,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B173">
         <v>0.258946</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B174">
         <v>0.256217</v>
@@ -13012,7 +13012,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B179">
         <v>0.240262</v>
@@ -13063,7 +13063,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B182">
         <v>0.256257</v>
@@ -13165,7 +13165,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B188">
         <v>0.239422</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B191">
         <v>0.255282</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B196">
         <v>0.238744</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B200">
         <v>0.254384</v>
@@ -13454,7 +13454,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B205">
         <v>0.238288</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B208">
         <v>0.254236</v>
@@ -13556,7 +13556,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B211">
         <v>0.238205</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B214">
         <v>0.23769</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B217">
         <v>0.254292</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B225">
         <v>0.239347</v>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B228">
         <v>0.256405</v>
@@ -13896,7 +13896,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B231">
         <v>0.257457</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B233">
         <v>0.240957</v>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B234">
         <v>0.240943</v>
@@ -13998,7 +13998,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B237">
         <v>0.257423</v>
@@ -14083,7 +14083,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B242">
         <v>0.241063</v>
@@ -14134,7 +14134,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B245">
         <v>0.25748</v>
@@ -14151,7 +14151,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B246">
         <v>0.257447</v>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B251">
         <v>0.241007</v>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B254">
         <v>0.257447</v>
@@ -14389,7 +14389,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B260">
         <v>0.241069</v>
@@ -14440,7 +14440,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B263">
         <v>0.25677</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B268">
         <v>0.240422</v>
@@ -14576,7 +14576,7 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B271">
         <v>0.240393</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B274">
         <v>0.241043</v>
@@ -14678,7 +14678,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B277">
         <v>0.257484</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B283">
         <v>0.260226</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B286">
         <v>0.257504</v>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B288">
         <v>0.243818</v>
@@ -14916,7 +14916,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B291">
         <v>0.241058</v>
@@ -15018,7 +15018,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B297">
         <v>0.241075</v>
@@ -15069,7 +15069,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B300">
         <v>0.257526</v>
@@ -15120,7 +15120,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B303">
         <v>0.257528</v>
@@ -15154,7 +15154,7 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B305">
         <v>0.24109</v>
@@ -15171,7 +15171,7 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B306">
         <v>0.241087</v>
@@ -15222,7 +15222,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B309">
         <v>0.256827</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B314">
         <v>0.240393</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B317">
         <v>0.256616</v>
@@ -15409,7 +15409,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B320">
         <v>0.24032</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B323">
         <v>0.257353</v>
@@ -15545,7 +15545,7 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B328">
         <v>0.240805</v>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B332">
         <v>0.256998</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B337">
         <v>0.240485</v>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B340">
         <v>0.256617</v>
@@ -15800,7 +15800,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B343">
         <v>0.240106</v>
@@ -15851,7 +15851,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B346">
         <v>0.239985</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B349">
         <v>0.256076</v>
@@ -16004,7 +16004,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B355">
         <v>0.258659</v>
@@ -16055,7 +16055,7 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B358">
         <v>0.25544</v>
@@ -16089,7 +16089,7 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B360">
         <v>0.242004</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>32871</v>
+        <v>32873</v>
       </c>
       <c r="B4">
         <v>8.381665</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>32962</v>
+        <v>32963</v>
       </c>
       <c r="B7">
         <v>9.209688</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>33053</v>
+        <v>33054</v>
       </c>
       <c r="B10">
         <v>8.875202</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>33144</v>
+        <v>33146</v>
       </c>
       <c r="B13">
         <v>9.105942000000001</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>33326</v>
+        <v>33328</v>
       </c>
       <c r="B19">
         <v>8.015852000000001</v>
@@ -16553,7 +16553,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>33417</v>
+        <v>33419</v>
       </c>
       <c r="B22">
         <v>7.859505</v>
@@ -16593,7 +16593,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>33480</v>
+        <v>33481</v>
       </c>
       <c r="B24">
         <v>7.448981</v>
@@ -16653,7 +16653,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>33571</v>
+        <v>33572</v>
       </c>
       <c r="B27">
         <v>6.770296</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>33662</v>
+        <v>33663</v>
       </c>
       <c r="B30">
         <v>6.501646</v>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>33753</v>
+        <v>33755</v>
       </c>
       <c r="B33">
         <v>6.454681</v>
@@ -16873,7 +16873,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>33907</v>
+        <v>33908</v>
       </c>
       <c r="B38">
         <v>5.469116</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>33998</v>
+        <v>34000</v>
       </c>
       <c r="B41">
         <v>5.373156</v>
@@ -16953,7 +16953,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>34026</v>
+        <v>34028</v>
       </c>
       <c r="B42">
         <v>5.094684</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>34180</v>
+        <v>34181</v>
       </c>
       <c r="B47">
         <v>4.85294</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>34271</v>
+        <v>34273</v>
       </c>
       <c r="B50">
         <v>4.569053</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>34453</v>
+        <v>34454</v>
       </c>
       <c r="B56">
         <v>5.820547</v>
@@ -17293,7 +17293,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>34544</v>
+        <v>34546</v>
       </c>
       <c r="B59">
         <v>6.343937</v>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>34698</v>
+        <v>34699</v>
       </c>
       <c r="B64">
         <v>7.654403</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>34817</v>
+        <v>34819</v>
       </c>
       <c r="B68">
         <v>6.823412</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>34971</v>
+        <v>34972</v>
       </c>
       <c r="B73">
         <v>6.020493</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>35062</v>
+        <v>35064</v>
       </c>
       <c r="B76">
         <v>5.513818</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>35153</v>
+        <v>35155</v>
       </c>
       <c r="B79">
         <v>5.758729</v>
@@ -17753,7 +17753,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>35244</v>
+        <v>35246</v>
       </c>
       <c r="B82">
         <v>5.797074</v>
@@ -17793,7 +17793,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>35307</v>
+        <v>35308</v>
       </c>
       <c r="B84">
         <v>5.838509</v>
@@ -17853,7 +17853,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>35398</v>
+        <v>35399</v>
       </c>
       <c r="B87">
         <v>5.040935</v>
@@ -17973,7 +17973,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>35580</v>
+        <v>35581</v>
       </c>
       <c r="B93">
         <v>5.315107</v>
@@ -18033,7 +18033,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>35671</v>
+        <v>35673</v>
       </c>
       <c r="B96">
         <v>5.18336</v>
@@ -18093,7 +18093,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>35762</v>
+        <v>35764</v>
       </c>
       <c r="B99">
         <v>5.06579</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>35825</v>
+        <v>35826</v>
       </c>
       <c r="B101">
         <v>4.716592</v>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>35853</v>
+        <v>35854</v>
       </c>
       <c r="B102">
         <v>4.789979</v>
@@ -18213,7 +18213,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>35944</v>
+        <v>35946</v>
       </c>
       <c r="B105">
         <v>4.748878</v>
@@ -18313,7 +18313,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>36098</v>
+        <v>36099</v>
       </c>
       <c r="B110">
         <v>3.748392</v>
@@ -18373,7 +18373,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>36189</v>
+        <v>36191</v>
       </c>
       <c r="B113">
         <v>3.764536</v>
@@ -18393,7 +18393,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>36217</v>
+        <v>36219</v>
       </c>
       <c r="B114">
         <v>4.039414</v>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>36371</v>
+        <v>36372</v>
       </c>
       <c r="B119">
         <v>4.360649</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>36462</v>
+        <v>36464</v>
       </c>
       <c r="B122">
         <v>4.44114</v>
@@ -18673,7 +18673,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>36644</v>
+        <v>36646</v>
       </c>
       <c r="B128">
         <v>4.982886</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>36798</v>
+        <v>36799</v>
       </c>
       <c r="B133">
         <v>4.628371</v>
@@ -18833,7 +18833,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>36889</v>
+        <v>36891</v>
       </c>
       <c r="B136">
         <v>3.949082</v>
@@ -18893,7 +18893,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B139">
         <v>3.336544</v>
@@ -18953,7 +18953,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B142">
         <v>3.318234</v>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B145">
         <v>2.514523</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B151">
         <v>3.032327</v>
@@ -19193,7 +19193,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B154">
         <v>2.633896</v>
@@ -19233,7 +19233,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B156">
         <v>2.259132</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B159">
         <v>2.083723</v>
@@ -19413,7 +19413,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B165">
         <v>1.525862</v>
@@ -19473,7 +19473,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B168">
         <v>1.793804</v>
@@ -19533,7 +19533,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B171">
         <v>1.91442</v>
@@ -19573,7 +19573,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B173">
         <v>1.696743</v>
@@ -19593,7 +19593,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B174">
         <v>1.581093</v>
@@ -19693,7 +19693,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B179">
         <v>2.001679</v>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B182">
         <v>1.869752</v>
@@ -19873,7 +19873,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B188">
         <v>2.184942</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B191">
         <v>2.317769</v>
@@ -20033,7 +20033,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B196">
         <v>2.723987</v>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B200">
         <v>3.170624</v>
@@ -20213,7 +20213,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B205">
         <v>3.262814</v>
@@ -20273,7 +20273,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B208">
         <v>3.460063</v>
@@ -20333,7 +20333,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B211">
         <v>3.423425</v>
@@ -20393,7 +20393,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B214">
         <v>3.774306</v>
@@ -20453,7 +20453,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B217">
         <v>3.308018</v>
@@ -20613,7 +20613,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B225">
         <v>3.049788</v>
@@ -20673,7 +20673,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B228">
         <v>2.819156</v>
@@ -20733,7 +20733,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B231">
         <v>1.684933</v>
@@ -20773,7 +20773,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B233">
         <v>1.219347</v>
@@ -20793,7 +20793,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B234">
         <v>1.225905</v>
@@ -20853,7 +20853,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B237">
         <v>1.145546</v>
@@ -20953,7 +20953,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B242">
         <v>1.120028</v>
@@ -21013,7 +21013,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B245">
         <v>1.097955</v>
@@ -21033,7 +21033,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B246">
         <v>0.995125</v>
@@ -21133,7 +21133,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B251">
         <v>0.853835</v>
@@ -21193,7 +21193,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B254">
         <v>0.841395</v>
@@ -21313,7 +21313,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B260">
         <v>1.275842</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B263">
         <v>1.197351</v>
@@ -21473,7 +21473,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B268">
         <v>0.836892</v>
@@ -21533,7 +21533,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B271">
         <v>0.7561369999999999</v>
@@ -21593,7 +21593,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B274">
         <v>0.758416</v>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B277">
         <v>0.596079</v>
@@ -21773,7 +21773,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B283">
         <v>0.541551</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B286">
         <v>0.6380209999999999</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B288">
         <v>0.6397040000000001</v>
@@ -21933,7 +21933,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B291">
         <v>0.5301</v>
@@ -22053,7 +22053,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B297">
         <v>0.556253</v>
@@ -22113,7 +22113,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B300">
         <v>0.534823</v>
@@ -22173,7 +22173,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B303">
         <v>0.49211</v>
@@ -22213,7 +22213,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B305">
         <v>0.418802</v>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B306">
         <v>0.485635</v>
@@ -22293,7 +22293,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B309">
         <v>0.474428</v>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B314">
         <v>0.492042</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B317">
         <v>0.468097</v>
@@ -22513,7 +22513,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B320">
         <v>0.391467</v>
@@ -22573,7 +22573,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B323">
         <v>0.280318</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B328">
         <v>0.488553</v>
@@ -22753,7 +22753,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B332">
         <v>0.540706</v>
@@ -22853,7 +22853,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B337">
         <v>0.659151</v>
@@ -22913,7 +22913,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B340">
         <v>0.8167990000000001</v>
@@ -22973,7 +22973,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B343">
         <v>0.990758</v>
@@ -23033,7 +23033,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B346">
         <v>1.202483</v>
@@ -23093,7 +23093,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B349">
         <v>1.409291</v>
@@ -23213,7 +23213,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B355">
         <v>1.151421</v>
@@ -23273,7 +23273,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B358">
         <v>0.885864</v>
@@ -23313,7 +23313,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B360">
         <v>0.719896</v>
@@ -23423,7 +23423,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>32871</v>
+        <v>32873</v>
       </c>
       <c r="B4">
         <v>1.728996</v>
@@ -23483,7 +23483,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>32962</v>
+        <v>32963</v>
       </c>
       <c r="B7">
         <v>1.714716</v>
@@ -23543,7 +23543,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>33053</v>
+        <v>33054</v>
       </c>
       <c r="B10">
         <v>1.712802</v>
@@ -23603,7 +23603,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>33144</v>
+        <v>33146</v>
       </c>
       <c r="B13">
         <v>1.692508</v>
@@ -23723,7 +23723,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>33326</v>
+        <v>33328</v>
       </c>
       <c r="B19">
         <v>1.696938</v>
@@ -23783,7 +23783,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>33417</v>
+        <v>33419</v>
       </c>
       <c r="B22">
         <v>1.700407</v>
@@ -23823,7 +23823,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>33480</v>
+        <v>33481</v>
       </c>
       <c r="B24">
         <v>1.741997</v>
@@ -23883,7 +23883,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>33571</v>
+        <v>33572</v>
       </c>
       <c r="B27">
         <v>1.735363</v>
@@ -23943,7 +23943,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>33662</v>
+        <v>33663</v>
       </c>
       <c r="B30">
         <v>1.77057</v>
@@ -24003,7 +24003,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>33753</v>
+        <v>33755</v>
       </c>
       <c r="B33">
         <v>1.723336</v>
@@ -24103,7 +24103,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>33907</v>
+        <v>33908</v>
       </c>
       <c r="B38">
         <v>1.716103</v>
@@ -24163,7 +24163,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>33998</v>
+        <v>34000</v>
       </c>
       <c r="B41">
         <v>1.737911</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>34026</v>
+        <v>34028</v>
       </c>
       <c r="B42">
         <v>1.784392</v>
@@ -24283,7 +24283,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>34180</v>
+        <v>34181</v>
       </c>
       <c r="B47">
         <v>1.794013</v>
@@ -24343,7 +24343,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>34271</v>
+        <v>34273</v>
       </c>
       <c r="B50">
         <v>1.76686</v>
@@ -24463,7 +24463,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>34453</v>
+        <v>34454</v>
       </c>
       <c r="B56">
         <v>1.760504</v>
@@ -24523,7 +24523,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>34544</v>
+        <v>34546</v>
       </c>
       <c r="B59">
         <v>1.781984</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>34698</v>
+        <v>34699</v>
       </c>
       <c r="B64">
         <v>1.724748</v>
@@ -24703,7 +24703,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>34817</v>
+        <v>34819</v>
       </c>
       <c r="B68">
         <v>1.734603</v>
@@ -24803,7 +24803,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>34971</v>
+        <v>34972</v>
       </c>
       <c r="B73">
         <v>1.754213</v>
@@ -24863,7 +24863,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>35062</v>
+        <v>35064</v>
       </c>
       <c r="B76">
         <v>1.768935</v>
@@ -24923,7 +24923,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>35153</v>
+        <v>35155</v>
       </c>
       <c r="B79">
         <v>1.778113</v>
@@ -24983,7 +24983,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>35244</v>
+        <v>35246</v>
       </c>
       <c r="B82">
         <v>1.774205</v>
@@ -25023,7 +25023,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>35307</v>
+        <v>35308</v>
       </c>
       <c r="B84">
         <v>1.778286</v>
@@ -25083,7 +25083,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>35398</v>
+        <v>35399</v>
       </c>
       <c r="B87">
         <v>1.761564</v>
@@ -25203,7 +25203,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>35580</v>
+        <v>35581</v>
       </c>
       <c r="B93">
         <v>1.76428</v>
@@ -25263,7 +25263,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>35671</v>
+        <v>35673</v>
       </c>
       <c r="B96">
         <v>1.742327</v>
@@ -25323,7 +25323,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>35762</v>
+        <v>35764</v>
       </c>
       <c r="B99">
         <v>1.74111</v>
@@ -25363,7 +25363,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>35825</v>
+        <v>35826</v>
       </c>
       <c r="B101">
         <v>1.746922</v>
@@ -25383,7 +25383,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>35853</v>
+        <v>35854</v>
       </c>
       <c r="B102">
         <v>1.785952</v>
@@ -25443,7 +25443,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>35944</v>
+        <v>35946</v>
       </c>
       <c r="B105">
         <v>1.807942</v>
@@ -25543,7 +25543,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>36098</v>
+        <v>36099</v>
       </c>
       <c r="B110">
         <v>1.771453</v>
@@ -25603,7 +25603,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>36189</v>
+        <v>36191</v>
       </c>
       <c r="B113">
         <v>1.760215</v>
@@ -25623,7 +25623,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>36217</v>
+        <v>36219</v>
       </c>
       <c r="B114">
         <v>1.762687</v>
@@ -25723,7 +25723,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>36371</v>
+        <v>36372</v>
       </c>
       <c r="B119">
         <v>1.799463</v>
@@ -25783,7 +25783,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>36462</v>
+        <v>36464</v>
       </c>
       <c r="B122">
         <v>1.793885</v>
@@ -25903,7 +25903,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>36644</v>
+        <v>36646</v>
       </c>
       <c r="B128">
         <v>1.788164</v>
@@ -26003,7 +26003,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>36798</v>
+        <v>36799</v>
       </c>
       <c r="B133">
         <v>1.796537</v>
@@ -26063,7 +26063,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>36889</v>
+        <v>36891</v>
       </c>
       <c r="B136">
         <v>1.797552</v>
@@ -26123,7 +26123,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B139">
         <v>1.781875</v>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B142">
         <v>1.769344</v>
@@ -26243,7 +26243,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B145">
         <v>1.782312</v>
@@ -26363,7 +26363,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B151">
         <v>1.763804</v>
@@ -26423,7 +26423,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B154">
         <v>1.77298</v>
@@ -26463,7 +26463,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B156">
         <v>1.776567</v>
@@ -26523,7 +26523,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B159">
         <v>1.79265</v>
@@ -26643,7 +26643,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B165">
         <v>1.827455</v>
@@ -26703,7 +26703,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B168">
         <v>1.818613</v>
@@ -26763,7 +26763,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B171">
         <v>1.822664</v>
@@ -26803,7 +26803,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B173">
         <v>1.81435</v>
@@ -26823,7 +26823,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B174">
         <v>1.812283</v>
@@ -26923,7 +26923,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B179">
         <v>1.822734</v>
@@ -26983,7 +26983,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B182">
         <v>1.828693</v>
@@ -27103,7 +27103,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B188">
         <v>1.83827</v>
@@ -27163,7 +27163,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B191">
         <v>1.85026</v>
@@ -27263,7 +27263,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B196">
         <v>1.800064</v>
@@ -27343,7 +27343,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B200">
         <v>1.82638</v>
@@ -27443,7 +27443,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B205">
         <v>1.833415</v>
@@ -27503,7 +27503,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B208">
         <v>1.809304</v>
@@ -27563,7 +27563,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B211">
         <v>1.836478</v>
@@ -27623,7 +27623,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B214">
         <v>1.828306</v>
@@ -27683,7 +27683,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B217">
         <v>1.836865</v>
@@ -27843,7 +27843,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B225">
         <v>1.792471</v>
@@ -27903,7 +27903,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B228">
         <v>1.813149</v>
@@ -27963,7 +27963,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B231">
         <v>1.821679</v>
@@ -28003,7 +28003,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B233">
         <v>1.868569</v>
@@ -28023,7 +28023,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B234">
         <v>1.84997</v>
@@ -28083,7 +28083,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B237">
         <v>1.867241</v>
@@ -28183,7 +28183,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B242">
         <v>1.901752</v>
@@ -28243,7 +28243,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B245">
         <v>1.878059</v>
@@ -28263,7 +28263,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B246">
         <v>1.862767</v>
@@ -28363,7 +28363,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B251">
         <v>1.893166</v>
@@ -28423,7 +28423,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B254">
         <v>1.888057</v>
@@ -28543,7 +28543,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B260">
         <v>1.872012</v>
@@ -28603,7 +28603,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B263">
         <v>1.882993</v>
@@ -28703,7 +28703,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B268">
         <v>1.904739</v>
@@ -28763,7 +28763,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B271">
         <v>1.921088</v>
@@ -28823,7 +28823,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B274">
         <v>1.917462</v>
@@ -28883,7 +28883,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B277">
         <v>1.926279</v>
@@ -29003,7 +29003,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B283">
         <v>1.890436</v>
@@ -29063,7 +29063,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B286">
         <v>1.88605</v>
@@ -29103,7 +29103,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B288">
         <v>1.863002</v>
@@ -29163,7 +29163,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B291">
         <v>1.885287</v>
@@ -29283,7 +29283,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B297">
         <v>1.892976</v>
@@ -29343,7 +29343,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B300">
         <v>1.902134</v>
@@ -29403,7 +29403,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B303">
         <v>1.902683</v>
@@ -29443,7 +29443,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B305">
         <v>1.90178</v>
@@ -29463,7 +29463,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B306">
         <v>1.891775</v>
@@ -29523,7 +29523,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B309">
         <v>1.873966</v>
@@ -29623,7 +29623,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B314">
         <v>1.886869</v>
@@ -29683,7 +29683,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B317">
         <v>1.877488</v>
@@ -29743,7 +29743,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B320">
         <v>1.919558</v>
@@ -29803,7 +29803,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B323">
         <v>1.92322</v>
@@ -29903,7 +29903,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B328">
         <v>1.93841</v>
@@ -29983,7 +29983,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B332">
         <v>1.940613</v>
@@ -30083,7 +30083,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B337">
         <v>1.94859</v>
@@ -30143,7 +30143,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B340">
         <v>1.930154</v>
@@ -30203,7 +30203,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B343">
         <v>1.929676</v>
@@ -30263,7 +30263,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B346">
         <v>1.937479</v>
@@ -30323,7 +30323,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B349">
         <v>1.934769</v>
@@ -30443,7 +30443,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B355">
         <v>1.917809</v>
@@ -30503,7 +30503,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B358">
         <v>1.928342</v>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B360">
         <v>1.893511</v>
@@ -30653,7 +30653,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B4">
         <v>2.878347</v>
@@ -30713,7 +30713,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B7">
         <v>2.897493</v>
@@ -30773,7 +30773,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B10">
         <v>2.444562</v>
@@ -30893,7 +30893,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B16">
         <v>3.04355</v>
@@ -30953,7 +30953,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B19">
         <v>2.831616</v>
@@ -30993,7 +30993,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B21">
         <v>2.517807</v>
@@ -31053,7 +31053,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B24">
         <v>2.33901</v>
@@ -31173,7 +31173,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B30">
         <v>1.78079</v>
@@ -31233,7 +31233,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B33">
         <v>1.982177</v>
@@ -31293,7 +31293,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B36">
         <v>2.085735</v>
@@ -31333,7 +31333,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B38">
         <v>1.891577</v>
@@ -31353,7 +31353,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B39">
         <v>1.774568</v>
@@ -31453,7 +31453,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B44">
         <v>2.037549</v>
@@ -31513,7 +31513,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B47">
         <v>1.895501</v>
@@ -31633,7 +31633,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B53">
         <v>1.917169</v>
@@ -31693,7 +31693,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B56">
         <v>1.916467</v>
@@ -31793,7 +31793,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B61">
         <v>2.344859</v>
@@ -31873,7 +31873,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B65">
         <v>2.81319</v>
@@ -31973,7 +31973,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B70">
         <v>2.995778</v>
@@ -32033,7 +32033,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B73">
         <v>3.251375</v>
@@ -32093,7 +32093,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B76">
         <v>3.282489</v>
@@ -32153,7 +32153,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B79">
         <v>3.716651</v>
@@ -32213,7 +32213,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B82">
         <v>3.517816</v>
@@ -32373,7 +32373,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B90">
         <v>3.78231</v>
@@ -32433,7 +32433,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B93">
         <v>3.663323</v>
@@ -32493,7 +32493,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B96">
         <v>2.784638</v>
@@ -32533,7 +32533,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B98">
         <v>2.190854</v>
@@ -32553,7 +32553,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B99">
         <v>2.202678</v>
@@ -32613,7 +32613,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B102">
         <v>2.001128</v>
@@ -32713,7 +32713,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B107">
         <v>1.624462</v>
@@ -32773,7 +32773,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B110">
         <v>1.540519</v>
@@ -32793,7 +32793,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B111">
         <v>1.401771</v>
@@ -32893,7 +32893,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B116">
         <v>1.389426</v>
@@ -32953,7 +32953,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B119">
         <v>1.465495</v>
@@ -33073,7 +33073,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B125">
         <v>2.032443</v>
@@ -33133,7 +33133,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B128">
         <v>1.93664</v>
@@ -33233,7 +33233,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B133">
         <v>1.712227</v>
@@ -33293,7 +33293,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B136">
         <v>1.36074</v>
@@ -33353,7 +33353,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B139">
         <v>1.406245</v>
@@ -33413,7 +33413,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B142">
         <v>1.057101</v>
@@ -33533,7 +33533,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B148">
         <v>0.900397</v>
@@ -33593,7 +33593,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B151">
         <v>0.987388</v>
@@ -33633,7 +33633,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B153">
         <v>0.94231</v>
@@ -33693,7 +33693,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B156">
         <v>0.7882670000000001</v>
@@ -33813,7 +33813,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B162">
         <v>0.723736</v>
@@ -33873,7 +33873,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B165">
         <v>0.609889</v>
@@ -33933,7 +33933,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B168">
         <v>0.544618</v>
@@ -33973,7 +33973,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B170">
         <v>0.43879</v>
@@ -33993,7 +33993,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B171">
         <v>0.420045</v>
@@ -34053,7 +34053,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B174">
         <v>0.43076</v>
@@ -34153,7 +34153,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B179">
         <v>0.409785</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B182">
         <v>0.327601</v>
@@ -34273,7 +34273,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B185">
         <v>0.246013</v>
@@ -34333,7 +34333,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B188">
         <v>0.111628</v>
@@ -34433,7 +34433,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B193">
         <v>0.107324</v>
@@ -34513,7 +34513,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B197">
         <v>0.120016</v>
@@ -34613,7 +34613,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B202">
         <v>0.198748</v>
@@ -34673,7 +34673,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B205">
         <v>0.195399</v>
@@ -34733,7 +34733,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B208">
         <v>0.231168</v>
@@ -34793,7 +34793,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B211">
         <v>0.35957</v>
@@ -34853,7 +34853,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B214">
         <v>0.465546</v>
@@ -34973,7 +34973,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B220">
         <v>0.318593</v>
@@ -35033,7 +35033,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B223">
         <v>0.261116</v>
@@ -35073,7 +35073,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B225">
         <v>0.159364</v>
@@ -35183,7 +35183,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B4">
         <v>1.863404</v>
@@ -35243,7 +35243,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B7">
         <v>1.851135</v>
@@ -35303,7 +35303,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B10">
         <v>1.851324</v>
@@ -35423,7 +35423,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B16">
         <v>1.834599</v>
@@ -35483,7 +35483,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B19">
         <v>1.846248</v>
@@ -35523,7 +35523,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B21">
         <v>1.835937</v>
@@ -35583,7 +35583,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B24">
         <v>1.841697</v>
@@ -35703,7 +35703,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B30">
         <v>1.879697</v>
@@ -35763,7 +35763,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B33">
         <v>1.86673</v>
@@ -35823,7 +35823,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B36">
         <v>1.85056</v>
@@ -35863,7 +35863,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B38">
         <v>1.863164</v>
@@ -35883,7 +35883,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B39">
         <v>1.857348</v>
@@ -35983,7 +35983,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B44">
         <v>1.864195</v>
@@ -36043,7 +36043,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B47">
         <v>1.861764</v>
@@ -36163,7 +36163,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B53">
         <v>1.908633</v>
@@ -36223,7 +36223,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B56">
         <v>1.905922</v>
@@ -36323,7 +36323,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B61">
         <v>1.826654</v>
@@ -36403,7 +36403,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B65">
         <v>1.886567</v>
@@ -36503,7 +36503,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B70">
         <v>1.85941</v>
@@ -36563,7 +36563,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B73">
         <v>1.81796</v>
@@ -36623,7 +36623,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B76">
         <v>1.863364</v>
@@ -36683,7 +36683,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B79">
         <v>1.868876</v>
@@ -36743,7 +36743,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B82">
         <v>1.861143</v>
@@ -36903,7 +36903,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B90">
         <v>1.858094</v>
@@ -36963,7 +36963,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B93">
         <v>1.856825</v>
@@ -37023,7 +37023,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B96">
         <v>1.849116</v>
@@ -37063,7 +37063,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B98">
         <v>1.900915</v>
@@ -37083,7 +37083,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B99">
         <v>1.879199</v>
@@ -37143,7 +37143,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B102">
         <v>1.876866</v>
@@ -37243,7 +37243,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B107">
         <v>1.889372</v>
@@ -37303,7 +37303,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B110">
         <v>1.870227</v>
@@ -37323,7 +37323,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B111">
         <v>1.851139</v>
@@ -37423,7 +37423,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B116">
         <v>1.908343</v>
@@ -37483,7 +37483,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B119">
         <v>1.882765</v>
@@ -37603,7 +37603,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B125">
         <v>1.905429</v>
@@ -37663,7 +37663,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B128">
         <v>1.923258</v>
@@ -37763,7 +37763,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B133">
         <v>1.881974</v>
@@ -37823,7 +37823,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B136">
         <v>1.912498</v>
@@ -37883,7 +37883,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B139">
         <v>1.92127</v>
@@ -37943,7 +37943,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B142">
         <v>1.914497</v>
@@ -38063,7 +38063,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B148">
         <v>1.906338</v>
@@ -38123,7 +38123,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B151">
         <v>1.914016</v>
@@ -38163,7 +38163,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B153">
         <v>1.864372</v>
@@ -38223,7 +38223,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B156">
         <v>1.876072</v>
@@ -38343,7 +38343,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B162">
         <v>1.883438</v>
@@ -38403,7 +38403,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B165">
         <v>1.882041</v>
@@ -38463,7 +38463,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B168">
         <v>1.881879</v>
@@ -38503,7 +38503,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B170">
         <v>1.903964</v>
@@ -38523,7 +38523,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B171">
         <v>1.892579</v>
@@ -38583,7 +38583,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B174">
         <v>1.8849</v>
@@ -38683,7 +38683,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B179">
         <v>1.904605</v>
@@ -38743,7 +38743,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B182">
         <v>1.893441</v>
@@ -38803,7 +38803,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B185">
         <v>1.944561</v>
@@ -38863,7 +38863,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B188">
         <v>1.943826</v>
@@ -38963,7 +38963,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B193">
         <v>1.92992</v>
@@ -39043,7 +39043,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B197">
         <v>1.963123</v>
@@ -39143,7 +39143,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B202">
         <v>1.952466</v>
@@ -39203,7 +39203,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B205">
         <v>1.936506</v>
@@ -39263,7 +39263,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B208">
         <v>1.953367</v>
@@ -39323,7 +39323,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B211">
         <v>1.9738</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B214">
         <v>1.951541</v>
@@ -39503,7 +39503,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B220">
         <v>1.940227</v>
@@ -39563,7 +39563,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B223">
         <v>1.951273</v>
@@ -39603,7 +39603,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B225">
         <v>1.891573</v>
@@ -39713,7 +39713,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>36980</v>
+        <v>36981</v>
       </c>
       <c r="B4">
         <v>0.093012</v>
@@ -39773,7 +39773,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>37071</v>
+        <v>37072</v>
       </c>
       <c r="B7">
         <v>0.14306</v>
@@ -39833,7 +39833,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>37162</v>
+        <v>37164</v>
       </c>
       <c r="B10">
         <v>0.117716</v>
@@ -39953,7 +39953,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>37344</v>
+        <v>37346</v>
       </c>
       <c r="B16">
         <v>0.129474</v>
@@ -40013,7 +40013,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>37435</v>
+        <v>37437</v>
       </c>
       <c r="B19">
         <v>0.15094</v>
@@ -40053,7 +40053,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>37498</v>
+        <v>37499</v>
       </c>
       <c r="B21">
         <v>0.130863</v>
@@ -40113,7 +40113,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>37589</v>
+        <v>37590</v>
       </c>
       <c r="B24">
         <v>0.153059</v>
@@ -40233,7 +40233,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>37771</v>
+        <v>37772</v>
       </c>
       <c r="B30">
         <v>0.113626</v>
@@ -40293,7 +40293,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>37862</v>
+        <v>37864</v>
       </c>
       <c r="B33">
         <v>0.089099</v>
@@ -40353,7 +40353,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>37953</v>
+        <v>37955</v>
       </c>
       <c r="B36">
         <v>0.07689500000000001</v>
@@ -40393,7 +40393,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>38016</v>
+        <v>38017</v>
       </c>
       <c r="B38">
         <v>0.048256</v>
@@ -40413,7 +40413,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>38044</v>
+        <v>38046</v>
       </c>
       <c r="B39">
         <v>0.070993</v>
@@ -40513,7 +40513,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>38198</v>
+        <v>38199</v>
       </c>
       <c r="B44">
         <v>0.06976300000000001</v>
@@ -40573,7 +40573,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>38289</v>
+        <v>38291</v>
       </c>
       <c r="B47">
         <v>0.063869</v>
@@ -40693,7 +40693,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>38471</v>
+        <v>38472</v>
       </c>
       <c r="B53">
         <v>0.106652</v>
@@ -40753,7 +40753,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>38562</v>
+        <v>38564</v>
       </c>
       <c r="B56">
         <v>0.09159</v>
@@ -40853,7 +40853,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>38716</v>
+        <v>38717</v>
       </c>
       <c r="B61">
         <v>0.089934</v>
@@ -40933,7 +40933,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>38835</v>
+        <v>38837</v>
       </c>
       <c r="B65">
         <v>0.08801</v>
@@ -41033,7 +41033,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>38989</v>
+        <v>38990</v>
       </c>
       <c r="B70">
         <v>0.109382</v>
@@ -41093,7 +41093,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>39080</v>
+        <v>39082</v>
       </c>
       <c r="B73">
         <v>0.104135</v>
@@ -41153,7 +41153,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>39171</v>
+        <v>39172</v>
       </c>
       <c r="B76">
         <v>0.092943</v>
@@ -41213,7 +41213,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>39262</v>
+        <v>39263</v>
       </c>
       <c r="B79">
         <v>0.068146</v>
@@ -41273,7 +41273,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>39353</v>
+        <v>39355</v>
       </c>
       <c r="B82">
         <v>0.18174</v>
@@ -41433,7 +41433,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>39598</v>
+        <v>39599</v>
       </c>
       <c r="B90">
         <v>0.331377</v>
@@ -41493,7 +41493,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B93">
         <v>0.424779</v>
@@ -41553,7 +41553,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B96">
         <v>0.957726</v>
@@ -41593,7 +41593,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B98">
         <v>0.963914</v>
@@ -41613,7 +41613,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B99">
         <v>0.991036</v>
@@ -41673,7 +41673,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B102">
         <v>0.765672</v>
@@ -41773,7 +41773,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B107">
         <v>0.422211</v>
@@ -41833,7 +41833,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B110">
         <v>0.49852</v>
@@ -41853,7 +41853,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B111">
         <v>0.476744</v>
@@ -41953,7 +41953,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B116">
         <v>0.540067</v>
@@ -42013,7 +42013,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B119">
         <v>0.514369</v>
@@ -42133,7 +42133,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B125">
         <v>0.574635</v>
@@ -42193,7 +42193,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B128">
         <v>0.8403080000000001</v>
@@ -42293,7 +42293,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B133">
         <v>1.150551</v>
@@ -42353,7 +42353,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B136">
         <v>0.769266</v>
@@ -42413,7 +42413,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B139">
         <v>0.923952</v>
@@ -42473,7 +42473,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B142">
         <v>0.657531</v>
@@ -42593,7 +42593,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B148">
         <v>0.519413</v>
@@ -42653,7 +42653,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B151">
         <v>0.484564</v>
@@ -42693,7 +42693,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B153">
         <v>0.428403</v>
@@ -42753,7 +42753,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B156">
         <v>0.331086</v>
@@ -42873,7 +42873,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B162">
         <v>0.284555</v>
@@ -42933,7 +42933,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B165">
         <v>0.204353</v>
@@ -42993,7 +42993,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B168">
         <v>0.191102</v>
@@ -43033,7 +43033,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B170">
         <v>0.147857</v>
@@ -43053,7 +43053,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B171">
         <v>0.108953</v>
@@ -43113,7 +43113,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B174">
         <v>0.227674</v>
@@ -43213,7 +43213,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B179">
         <v>0.276749</v>
@@ -43273,7 +43273,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B182">
         <v>0.312102</v>
@@ -43333,7 +43333,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B185">
         <v>0.269606</v>
@@ -43393,7 +43393,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B188">
         <v>0.2743</v>
@@ -43493,7 +43493,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B193">
         <v>0.270438</v>
@@ -43573,7 +43573,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B197">
         <v>0.255112</v>
@@ -43673,7 +43673,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B202">
         <v>0.212496</v>
@@ -43733,7 +43733,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B205">
         <v>0.192521</v>
@@ -43793,7 +43793,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B208">
         <v>0.183662</v>
@@ -43853,7 +43853,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B211">
         <v>0.27987</v>
@@ -43913,7 +43913,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B214">
         <v>0.291329</v>
@@ -44033,7 +44033,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B220">
         <v>0.263229</v>
@@ -44093,7 +44093,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B223">
         <v>0.255565</v>
@@ -44133,7 +44133,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B225">
         <v>0.25452</v>
@@ -44223,7 +44223,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>39689</v>
+        <v>39691</v>
       </c>
       <c r="B3">
         <v>9.268877</v>
@@ -44283,7 +44283,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>39780</v>
+        <v>39782</v>
       </c>
       <c r="B6">
         <v>8.718546</v>
@@ -44323,7 +44323,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>39843</v>
+        <v>39844</v>
       </c>
       <c r="B8">
         <v>6.726186</v>
@@ -44343,7 +44343,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>39871</v>
+        <v>39872</v>
       </c>
       <c r="B9">
         <v>6.946145</v>
@@ -44403,7 +44403,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>39962</v>
+        <v>39964</v>
       </c>
       <c r="B12">
         <v>6.264277</v>
@@ -44503,7 +44503,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>40116</v>
+        <v>40117</v>
       </c>
       <c r="B17">
         <v>6.319093</v>
@@ -44563,7 +44563,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>40207</v>
+        <v>40209</v>
       </c>
       <c r="B20">
         <v>5.92885</v>
@@ -44583,7 +44583,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>40235</v>
+        <v>40237</v>
       </c>
       <c r="B21">
         <v>5.84443</v>
@@ -44683,7 +44683,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>40389</v>
+        <v>40390</v>
       </c>
       <c r="B26">
         <v>5.709065</v>
@@ -44743,7 +44743,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>40480</v>
+        <v>40482</v>
       </c>
       <c r="B29">
         <v>5.629227</v>
@@ -44863,7 +44863,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>40662</v>
+        <v>40663</v>
       </c>
       <c r="B35">
         <v>6.319269</v>
@@ -44923,7 +44923,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>40753</v>
+        <v>40755</v>
       </c>
       <c r="B38">
         <v>6.675014</v>
@@ -45023,7 +45023,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>40907</v>
+        <v>40908</v>
       </c>
       <c r="B43">
         <v>6.510368</v>
@@ -45083,7 +45083,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B46">
         <v>6.201874</v>
@@ -45143,7 +45143,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>41089</v>
+        <v>41090</v>
       </c>
       <c r="B49">
         <v>5.697093</v>
@@ -45203,7 +45203,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>41180</v>
+        <v>41182</v>
       </c>
       <c r="B52">
         <v>5.199376</v>
@@ -45323,7 +45323,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>41362</v>
+        <v>41364</v>
       </c>
       <c r="B58">
         <v>4.896456</v>
@@ -45383,7 +45383,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>41453</v>
+        <v>41455</v>
       </c>
       <c r="B61">
         <v>5.462763</v>
@@ -45423,7 +45423,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>41516</v>
+        <v>41517</v>
       </c>
       <c r="B63">
         <v>5.562727</v>
@@ -45483,7 +45483,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>41607</v>
+        <v>41608</v>
       </c>
       <c r="B66">
         <v>5.289935</v>
@@ -45603,7 +45603,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>41789</v>
+        <v>41790</v>
       </c>
       <c r="B72">
         <v>5.483585</v>
@@ -45663,7 +45663,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>41880</v>
+        <v>41882</v>
       </c>
       <c r="B75">
         <v>5.320356</v>
@@ -45723,7 +45723,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>41971</v>
+        <v>41973</v>
       </c>
       <c r="B78">
         <v>5.227345</v>
@@ -45763,7 +45763,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>42034</v>
+        <v>42035</v>
       </c>
       <c r="B80">
         <v>5.161668</v>
@@ -45783,7 +45783,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>42062</v>
+        <v>42063</v>
       </c>
       <c r="B81">
         <v>5.29763</v>
@@ -45843,7 +45843,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>42153</v>
+        <v>42155</v>
       </c>
       <c r="B84">
         <v>5.006243</v>
@@ -45943,7 +45943,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B89">
         <v>4.808462</v>
@@ -46003,7 +46003,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>42398</v>
+        <v>42400</v>
       </c>
       <c r="B92">
         <v>4.58974</v>
@@ -46063,7 +46063,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B95">
         <v>4.510696</v>
@@ -46123,7 +46123,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>42580</v>
+        <v>42582</v>
       </c>
       <c r="B98">
         <v>4.540686</v>
@@ -46223,7 +46223,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B103">
         <v>4.938911</v>
@@ -46303,7 +46303,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="B107">
         <v>4.45447</v>
@@ -46403,7 +46403,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B112">
         <v>4.400057</v>
@@ -46463,7 +46463,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>43098</v>
+        <v>43100</v>
       </c>
       <c r="B115">
         <v>4.376598</v>
@@ -46523,7 +46523,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>43189</v>
+        <v>43190</v>
       </c>
       <c r="B118">
         <v>4.321855</v>
@@ -46583,7 +46583,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>43280</v>
+        <v>43281</v>
       </c>
       <c r="B121">
         <v>4.878544</v>
@@ -46643,7 +46643,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>43371</v>
+        <v>43373</v>
       </c>
       <c r="B124">
         <v>5.098006</v>
@@ -46763,7 +46763,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>43553</v>
+        <v>43555</v>
       </c>
       <c r="B130">
         <v>4.473571</v>
@@ -46823,7 +46823,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>43644</v>
+        <v>43646</v>
       </c>
       <c r="B133">
         <v>4.253498</v>
@@ -46863,7 +46863,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>43707</v>
+        <v>43708</v>
       </c>
       <c r="B135">
         <v>3.898155</v>
